--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/302 珑克酒店.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/302 珑克酒店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" firstSheet="7" activeTab="16"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="maze302_exit" sheetId="30" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="118">
   <si>
     <t>说明</t>
   </si>
@@ -1221,7 +1221,7 @@
     <t>切换场景</t>
   </si>
   <si>
-    <t>apartment3</t>
+    <t>long_wineshop</t>
   </si>
   <si>
     <t>跳转-标签</t>
@@ -1269,13 +1269,16 @@
     <t>我们可以选择原路返回，但是杜博士叫我们来一定有她的理由吧，说不定里面真的有豪华晚餐呢？</t>
   </si>
   <si>
-    <t>唉，周易，你来决定吧。</t>
-  </si>
-  <si>
-    <t>杜博士什么时候开始喜欢画饼了呢，唉。</t>
-  </si>
-  <si>
-    <t>抱怨的话小点声，杜杜来电话了。</t>
+    <t>唉，你来决定吧。</t>
+  </si>
+  <si>
+    <t>{#聂飞馋动作}杜博士什么时候开始喜欢画饼了呢，唉。</t>
+  </si>
+  <si>
+    <t>type=0</t>
+  </si>
+  <si>
+    <t>{#涂凌待机2动作}抱怨的话小点声，杜杜来电话了。</t>
   </si>
   <si>
     <t>duheng_video</t>
@@ -1284,55 +1287,156 @@
     <t>duheng</t>
   </si>
   <si>
-    <t>恭喜你们，离假期又近一步了哦。我现在正在休假中，长话短说，你们就快点解决掉巢主后来找我吧~</t>
+    <r>
+      <t>{#杜衡惊讶动作}恭喜你们，离假期又近一步了。我现在正在休假中，长话短说，你们就快点解决掉巢主后来找我吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
   </si>
   <si>
     <t>type=4</t>
   </si>
   <si>
-    <t>怎么会有这种事！喂，杜博士！</t>
+    <t>{#聂飞愤怒}怎么会有这种事！喂，杜博士！</t>
   </si>
   <si>
     <t>电话已经被挂断了。</t>
   </si>
   <si>
-    <t>我们有离巢主更近了吗，呜呜，我好累。</t>
-  </si>
-  <si>
-    <t>比起巢主，我还是更在意巨龙宝藏的事情。</t>
-  </si>
-  <si>
-    <t>对啊！宝藏！说不定前面就是了呢！</t>
-  </si>
-  <si>
-    <t>周易，你怎么带我们来了一条死路啊。这样本大爷又要费力气绕路去找巢主了。</t>
+    <t>type=1</t>
+  </si>
+  <si>
+    <t>{#聂飞馋动作}我们有离巢主更近了吗，呜呜，我好累。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2思考动作}比起巢主，我还是更在意巨龙宝藏的事情。{#聂飞馋动作恢复}</t>
+  </si>
+  <si>
+    <t>{#聂飞开心动作}对啊！宝藏！说不定前面就是了呢！</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳}你怎么带我们来了一条死路啊。这样本大爷又要费力气绕路去找巢主了。</t>
   </si>
   <si>
     <t>聂飞踹了一脚墙，却从墙里听到了沉闷的回声。</t>
   </si>
   <si>
-    <t>type=1</t>
-  </si>
-  <si>
-    <t>这个声音……难道说，隔壁是房间？</t>
-  </si>
-  <si>
-    <t>凯瑟琳，关于你说的那个问题。也许每个人的答案都不一样吧。</t>
-  </si>
-  <si>
-    <t>也对，这也是为什么两种情绪都在这个巢里泛滥的原因吧。</t>
-  </si>
-  <si>
-    <t>人为组织的痕迹暂时没有发现，但巢变和情绪的关联似乎联系地更紧了。</t>
-  </si>
-  <si>
-    <t>巢，到底还有多少我们不知道的秘密呢？</t>
-  </si>
-  <si>
-    <t>前面的，就是巢主了。</t>
-  </si>
-  <si>
-    <t>wo</t>
+    <r>
+      <t>{#凯瑟琳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思考动作}{#凯瑟琳2思考表情}这个声音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难道说，隔壁是房间？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#涂凌待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作}凯瑟琳，关于你说的那个问题。也许每个人的答案都不一样吧。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#凯瑟琳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张动作}也对，这也是为什么两种情绪都在这个巢里泛滥的原因吧。</t>
+    </r>
+  </si>
+  <si>
+    <t>{#涂凌待机动作}人为组织的痕迹暂时没有发现，但巢变和情绪的关联似乎联系地更紧了。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2待机动作}巢，到底还有多少我们不知道的秘密呢？</t>
+  </si>
+  <si>
+    <t>{#涂凌愤怒动作}前面的，就是巢主了。</t>
+  </si>
+  <si>
+    <t>@char_1</t>
   </si>
   <si>
     <t>别叫我巢主，叫我老板！哼。</t>
@@ -1341,7 +1445,10 @@
     <t>name=巢主</t>
   </si>
   <si>
-    <t>这里所有的异质物都是给你打工的吗，我还以为他们能天天泡温泉呢。</t>
+    <t>pos=右</t>
+  </si>
+  <si>
+    <t>{聂飞惊讶}这里所有的异质物都是给你打工的吗，我还以为他们能天天泡温泉呢。</t>
   </si>
   <si>
     <t>你这么理解也没错，他们辛苦地工作就是为了能让我天天泡温泉啊，哈哈哈哈哈。</t>
@@ -1350,7 +1457,44 @@
     <t>name=“老板”</t>
   </si>
   <si>
-    <t>感觉这个巢主和杜衡好像……</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#凯瑟琳2享受动作}感觉这个巢主和杜衡好像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
   </si>
   <si>
     <t>好了，你们是来应聘的呢，还是我今晚的加餐呢？</t>
@@ -1359,22 +1503,51 @@
     <t>战斗结束</t>
   </si>
   <si>
-    <t>真想再揍几拳！拿他出出气！</t>
-  </si>
-  <si>
-    <t>好了，我比较好奇的是，如果说巢是由人的负面情绪凝聚形成的，那么在这个巢里，</t>
+    <t>{#聂飞军体拳}真想再揍几拳！拿他出出气！</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2思考动作}{#凯瑟琳2思考表情}好了，我比较好奇的是，如果说巢是由人的负面情绪凝聚形成的，那么在这个巢里，</t>
   </si>
   <si>
     <t>到底努力工作的激情是负面情绪，还是想休息的心是负面情绪呢？</t>
   </si>
   <si>
-    <t>难道你就是，沉睡的巨龙？一点都不像啊！</t>
+    <t>{#聂飞严肃动作}难道你就是，沉睡的巨龙？一点都不像啊！</t>
   </si>
   <si>
     <t>听不懂你在说些什么，我是财务处的，别打扰我算账，不然我找你们算账！</t>
   </si>
   <si>
-    <t>好冷。</t>
+    <t>name=会计</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#涂凌待机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作}好冷。</t>
+    </r>
   </si>
   <si>
     <t>糟糕！偷懒被发现了！可不能传出去呀！</t>
@@ -1383,22 +1556,74 @@
     <t>name=认真的保镖</t>
   </si>
   <si>
-    <t>请问你们有这个房间的钥匙吗？没有的话也没关系，我可以拿你们当材料做一个的~</t>
+    <t>请问你们有这个房间的钥匙吗？</t>
   </si>
   <si>
     <t>name=疯狂的小偷</t>
   </si>
   <si>
-    <t>即使我已经连续工作了172个小时，现在我依然状态满满，我不会让你们过去的！</t>
+    <t>没有也没关系，我可以拿你们当材料做一个的~</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即使我已经连续工作了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>172</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个小时，现在我</t>
+    </r>
   </si>
   <si>
     <t>name=尽力的保镖</t>
   </si>
   <si>
-    <t>别往前了，我刚来这一个月，温泉什么的都是骗人的啊。</t>
-  </si>
-  <si>
-    <t>疲惫的人</t>
+    <t>依然状态满满！我不会让你们过去的！</t>
+  </si>
+  <si>
+    <r>
+      <t>别往前了，我刚来这一个月，温泉什么的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都是骗人的啊。</t>
+    </r>
+  </si>
+  <si>
+    <t>name=疲惫的人</t>
   </si>
   <si>
     <t>你们怎么会出现在这里，前面那帮人是不是该优化一下了，干什么吃的！</t>
@@ -1419,28 +1644,89 @@
     <t>name=着急的人</t>
   </si>
   <si>
-    <t>可惜的是……我该不该说呢，会不会又说漏嘴了？可是我们的确有一个同伴牺牲，另一个同伴失踪了啊！呜呜呜……</t>
-  </si>
-  <si>
-    <t>帮托你们帮我找到失踪的同伴吧，这里真的好危险，我只想带他一起回家！</t>
-  </si>
-  <si>
-    <t>我是绝对不会告诉你们巨龙宝藏就在我的正南方和西南方的！完蛋，我是不是又漏漏嘴了。</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可惜的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我该不该说呢，会不会又说漏嘴了？</t>
+    </r>
+  </si>
+  <si>
+    <t>可是我们的确有一个同伴牺牲，另一个同伴失踪了啊！呜呜呜……</t>
+  </si>
+  <si>
+    <t>帮托你们帮我找到失踪的同伴吧，这里真的好危险啊，我只想带他一起回家！</t>
+  </si>
+  <si>
+    <t>我是绝对不会告诉你们巨龙宝藏就在我的正南方和西南方的！完蛋，我是不是又说漏嘴了。</t>
   </si>
   <si>
     <t>name=嘴严的人</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pos=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
     <t>是来救我的？哼，白费力气，老子已经没救了，你们就没人听得懂吗？</t>
   </si>
   <si>
-    <t>name=受伤的人</t>
+    <t>name=重伤的人</t>
+  </si>
+  <si>
+    <t>与其来救我，不如去杀几个怪物！杀完回来，我的宝贝就全给你了！</t>
   </si>
   <si>
     <t>完成任务</t>
   </si>
   <si>
-    <t>来，是男人就拿着。虽然我死定了，但是只要知道这些东西被别的勇士带在身上战斗，我就感觉生命充满了活力！哈哈哈哈哈哈！呃啊。</t>
+    <t>来，是男人就拿着。虽然我死定了，但是只要知道</t>
+  </si>
+  <si>
+    <t>这些东西被别的勇士带在身上战斗，我就感觉生命充满了活力！</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈！</t>
+  </si>
+  <si>
+    <t>呃啊。</t>
   </si>
   <si>
     <t>是他让你们来救我的吗？啊实在感谢，但是我似乎并不需要救援哦……我只想躺着……</t>
@@ -1524,13 +1810,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2211,7 +2497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2295,6 +2581,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2675,17 +2967,17 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5166666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="77.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -2837,7 +3129,7 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2852,7 +3144,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="32" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2866,8 +3158,8 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2882,7 +3174,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2891,41 +3183,41 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2960,10 +3252,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3006,7 +3298,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -3106,7 +3398,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="19">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3145,13 +3437,17 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="28"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3162,14 +3458,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:8">
@@ -3180,30 +3476,51 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3215,10 +3532,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3261,7 +3578,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -3361,7 +3678,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="19">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -3400,9 +3717,13 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="28"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
@@ -3417,14 +3738,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3435,30 +3756,51 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3473,7 +3815,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3655,13 +3997,17 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3672,14 +4018,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:8">
@@ -3728,7 +4074,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3910,8 +4256,12 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -3927,14 +4277,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3983,7 +4333,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4165,8 +4515,12 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -4182,14 +4536,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:8">
@@ -4235,9 +4589,2751 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$784,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" ref="A12:A23" si="1">ROW()-6</f>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$780,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:8">
+      <c r="A20" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="99.125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$792,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A21" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:5">
+      <c r="A20" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$791,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A20" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" ht="24.75" spans="1:8">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
+      <c r="A18" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:8">
+      <c r="A19" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$785,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:8">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$786,CELL("row")-4)</f>
+        <v>移除角色</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A15" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:8">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -4280,9 +7376,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
-        <v>0</v>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -4420,9 +7516,15 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
@@ -4437,17 +7539,15 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" ht="26.25" spans="1:8">
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4455,18 +7555,12 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>96</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="19">
@@ -4476,36 +7570,106 @@
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="26"/>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" ht="15" spans="1:8">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4514,13 +7678,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:H12"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4562,9 +7726,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$802,CELL("row")-4)</f>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -4663,7 +7827,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="19">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4702,9 +7866,15 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
@@ -4719,15 +7889,13 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>98</v>
-      </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="19">
@@ -4740,27 +7908,396 @@
         <v>43</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="26"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19">
+        <f t="shared" ref="A15:A25" si="1">ROW()-6</f>
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="19">
+        <f t="shared" ref="A26:A32" si="2">ROW()-6</f>
+        <v>20</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="19">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" ht="24" spans="1:8">
+      <c r="A29" s="19">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="19">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="19">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4769,13 +8306,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:H24"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4817,9 +8354,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
+      <c r="D2" s="6" t="str">
+        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -4918,7 +8455,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="19">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A16" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -4933,7 +8470,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="19">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="20"/>
@@ -4952,174 +8489,165 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>100</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:3">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="19">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-    </row>
-    <row r="10" ht="15" spans="1:8">
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="19">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <f>ROW()-6</f>
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:8">
       <c r="A12" s="19">
-        <f t="shared" ref="A12:A24" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" ht="15" spans="1:8">
       <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>103</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5128,13 +8656,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet18"/>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5316,13 +8844,17 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="23"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5333,2827 +8865,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="99.125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$792,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A21" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:6">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$788,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A17" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="24.75" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$785,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="15" spans="1:8">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$784,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A13" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" ht="15" spans="1:8">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$795,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f>ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f>ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f>ROW()-6</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f>ROW()-6</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" ref="A10:A20" si="0">ROW()-6</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="19">
-        <f t="shared" ref="A18:A24" si="1">ROW()-6</f>
-        <v>12</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="19">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="19">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="19">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="19">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="19">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$786,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="15" spans="1:8">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8">

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/302 珑克酒店.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/302 珑克酒店.xlsx
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="120">
   <si>
     <t>说明</t>
   </si>
@@ -1288,6 +1288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{#杜衡惊讶动作}恭喜你们，离假期又近一步了。我现在正在休假中，长话短说，你们就快点解决掉巢主后来找我吧</t>
     </r>
     <r>
@@ -1329,6 +1335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{#凯瑟琳</t>
     </r>
     <r>
@@ -1601,6 +1613,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>别往前了，我刚来这一个月，温泉什么的</t>
     </r>
     <r>
@@ -1733,6 +1751,12 @@
   </si>
   <si>
     <t>name=懒散的人</t>
+  </si>
+  <si>
+    <t>问候</t>
+  </si>
+  <si>
+    <t>躺在这里还蛮舒服的嘛。</t>
   </si>
 </sst>
 </file>
@@ -1976,12 +2000,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4007,7 +4031,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4828,7 +4852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4849,7 +4873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="19">
         <f t="shared" ref="A12:A23" si="1">ROW()-6</f>
         <v>6</v>
@@ -5204,9 +5228,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="str">
         <f ca="1">INDEX($D$5:$D$780,CELL("row")-4)</f>
-        <v>0</v>
+        <v>设置角色</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -5375,7 +5399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5576,10 +5600,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5621,9 +5645,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="str">
         <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -5812,18 +5836,117 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3">
+      <c r="A12" s="19">
+        <f t="shared" ref="A12:A20" si="1">ROW()-6</f>
+        <v>6</v>
+      </c>
       <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16" s="19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17" s="19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5882,7 +6005,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="str">
         <f ca="1">INDEX($D$5:$D$792,CELL("row")-4)</f>
-        <v>角色台词</v>
+        <v>设置角色</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -6291,7 +6414,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="str">
         <f ca="1">INDEX($D$5:$D$791,CELL("row")-4)</f>
-        <v>角色台词</v>
+        <v>设置角色</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -6517,7 +6640,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7041,9 +7164,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="6">
         <f ca="1">INDEX($D$5:$D$786,CELL("row")-4)</f>
-        <v>移除角色</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -7248,7 +7371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7267,7 +7390,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7376,9 +7499,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="6">
         <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>角色台词</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -8354,9 +8477,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="6">
         <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>角色台词</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
